--- a/data/input_excel/DBLP_self_correct.xlsx
+++ b/data/input_excel/DBLP_self_correct.xlsx
@@ -375,25 +375,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="472.83203125" customWidth="1"/>
-    <col min="3" max="3" width="116.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
-    <col min="10" max="10" width="117.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="200.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="198.83203125" customWidth="1"/>
+    <col min="4" max="4" width="127.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="51.83203125" customWidth="1"/>
+    <col min="11" max="11" width="282.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="200.83203125" customWidth="1"/>
+    <col min="14" max="14" width="33.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,39 +405,42 @@
         <v>Authors</v>
       </c>
       <c r="C1" t="str">
+        <v>Editors</v>
+      </c>
+      <c r="D1" t="str">
         <v>Title</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Journal</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Publication year</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Volume</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Issue</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Pages</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Publisher</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Proceedings title</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Date published</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>URLs</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>DOI</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>Eprint ID</v>
       </c>
     </row>
@@ -445,43 +449,46 @@
         <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Ganguli D,Askell A,Schiefer N,Liao TI,Lukosiute K,Chen A,Goldie A,Mirhoseini A,Olsson C,Hernandez D,Drain D,Li D,Tran-Johnson E,Perez E,Kernion J,Kerr J,Mueller J,Landau J,Ndousse K,Nguyen K,Lovitt L,Sellitto M,Elhage N,Mercado N,DasSarma N,Rausch O,Lasenby R,Larson R,Ringer S,Kundu S,Kadavath S,Johnston S,Kravec S,Showk SE,Lanham T,Telleen-Lawton T,Henighan T,Hume T,Bai Y,Hatfield-Dodds Z,Mann B,Amodei D,Joseph N,McCandlish S,Brown T,Olah C,Clark J,Bowman SR,Kaplan J</v>
+        <v>Sun J,Pan Y,Yan X</v>
       </c>
       <c r="C2" t="str">
-        <v>The Capacity for Moral Self-Correction in Large Language Models</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>CoRR</v>
+        <v>Improving intermediate reasoning in zero-shot chain-of-thought for large language models with filter supervisor-self correction</v>
       </c>
       <c r="E2" t="str">
-        <v>2023</v>
+        <v>Neurocomputing</v>
       </c>
       <c r="F2" t="str">
-        <v>abs/2302.07459</v>
+        <v>2025</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>620</v>
       </c>
       <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>129219</v>
       </c>
       <c r="J2" t="str">
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>https://doi.org/10.48550/arXiv.2302.07459;http://dx.doi.org/10.48550/ARXIV.2302.07459</v>
+        <v>2025</v>
       </c>
       <c r="M2" t="str">
-        <v>10.48550/ARXIV.2302.07459</v>
+        <v>https://doi.org/10.1016/j.neucom.2024.129219;http://dx.doi.org/10.1016/J.NEUCOM.2024.129219</v>
       </c>
       <c r="N2" t="str">
-        <v>2302.07459</v>
+        <v>10.1016/J.NEUCOM.2024.129219</v>
+      </c>
+      <c r="O2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -489,22 +496,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Gou Z,Shao Z,Gong Y,Shen Y,Yang Y,Duan N,Chen W</v>
+        <v>Song X,Wu Y,Wang W,Liu J,Su W,Zheng B</v>
       </c>
       <c r="C3" t="str">
-        <v>CRITIC: Large Language Models Can Self-Correct with Tool-Interactive Critiquing</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>CoRR</v>
+        <v>ProgCo: Program Helps Self-Correction of Large Language Models</v>
       </c>
       <c r="E3" t="str">
-        <v>2023</v>
+        <v>CoRR</v>
       </c>
       <c r="F3" t="str">
-        <v>abs/2305.11738</v>
+        <v>2025</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>abs/2501.01264</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -516,36 +523,39 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>https://doi.org/10.48550/arXiv.2305.11738;http://dx.doi.org/10.48550/ARXIV.2305.11738</v>
+        <v>2025</v>
       </c>
       <c r="M3" t="str">
-        <v>10.48550/ARXIV.2305.11738</v>
+        <v>https://doi.org/10.48550/arXiv.2501.01264;http://dx.doi.org/10.48550/ARXIV.2501.01264</v>
       </c>
       <c r="N3" t="str">
-        <v>2305.11738</v>
+        <v>10.48550/ARXIV.2501.01264</v>
+      </c>
+      <c r="O3" t="str">
+        <v>2501.01264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Zhao T,Wei M,Preston JS,Poon H</v>
+        <v>Han H,Liang J,Shi J,He Q,Xiao Y</v>
       </c>
       <c r="C4" t="str">
-        <v>Automatic Calibration and Error Correction for Large Language Models via Pareto Optimal Self-Supervision</v>
+        <v>Wooldridge MJ,Dy JG,Natarajan S</v>
       </c>
       <c r="D4" t="str">
-        <v>CoRR</v>
+        <v>Small Language Model Can Self-Correct</v>
       </c>
       <c r="E4" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>abs/2306.16564</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -554,42 +564,45 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>18162-18170</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>AAAI Press</v>
       </c>
       <c r="K4" t="str">
-        <v>2023</v>
+        <v>Thirty-Eighth AAAI Conference on Artificial Intelligence, AAAI 2024, Thirty-Sixth Conference on Innovative Applications of Artificial Intelligence, IAAI 2024, Fourteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2014, February 20-27, 2024, Vancouver, Canada</v>
       </c>
       <c r="L4" t="str">
-        <v>https://doi.org/10.48550/arXiv.2306.16564;http://dx.doi.org/10.48550/ARXIV.2306.16564</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>10.48550/ARXIV.2306.16564</v>
+        <v>https://doi.org/10.1609/aaai.v38i16.29774;http://dx.doi.org/10.1609/AAAI.V38I16.29774</v>
       </c>
       <c r="N4" t="str">
-        <v>2306.16564</v>
+        <v>10.1609/AAAI.V38I16.29774</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Pan L,Saxon M,Xu W,Nathani D,Wang X,Wang WY</v>
+        <v>Liang X,Ma L,Guo S,Han J,Xu H,Ma S,Liang X</v>
       </c>
       <c r="C5" t="str">
-        <v>Automatically Correcting Large Language Models: Surveying the landscape of diverse self-correction strategies</v>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D5" t="str">
-        <v>CoRR</v>
+        <v>CorNav: Autonomous Agent with Self-Corrected Planning for Zero-Shot Vision-and-Language Navigation</v>
       </c>
       <c r="E5" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>abs/2308.03188</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -598,42 +611,45 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>12538-12559</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K5" t="str">
-        <v>2023</v>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="L5" t="str">
-        <v>https://doi.org/10.48550/arXiv.2308.03188;http://dx.doi.org/10.48550/ARXIV.2308.03188</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>10.48550/ARXIV.2308.03188</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.745;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.745</v>
       </c>
       <c r="N5" t="str">
-        <v>2308.03188</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.745</v>
+      </c>
+      <c r="O5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Poncelet J,Van Hamme H</v>
+        <v>Zhang Y,Khalifa M,Logeswaran L,Kim J,Lee M,Lee H,Wang L</v>
       </c>
       <c r="C6" t="str">
-        <v>Unsupervised Accent Adaptation Through Masked Language Model Correction Of Discrete Self-Supervised Speech Units</v>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D6" t="str">
-        <v>CoRR</v>
+        <v>Small Language Models Need Strong Verifiers to Self-Correct Reasoning</v>
       </c>
       <c r="E6" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>abs/2309.13994</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -642,42 +658,45 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>15637-15653</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K6" t="str">
-        <v>2023</v>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="L6" t="str">
-        <v>https://doi.org/10.48550/arXiv.2309.13994;http://dx.doi.org/10.48550/ARXIV.2309.13994</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="str">
-        <v>10.48550/ARXIV.2309.13994</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.924;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.924</v>
       </c>
       <c r="N6" t="str">
-        <v>2309.13994</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.924</v>
+      </c>
+      <c r="O6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>Huang J,Chen X,Mishra S,Zheng HS,Yu AW,Song X,Zhou D</v>
+        <v>Berger N,Riezler S,Exel M,Huck M</v>
       </c>
       <c r="C7" t="str">
-        <v>Large Language Models Cannot Self-Correct Reasoning Yet</v>
+        <v>Scarton C,Prescott C,Bayliss C,Oakley C,Wright J,Wrigley S,Song X,Gow-Smith E,Bawden R,Sánchez-Cartagena VM,Cadwell P,Lapshinova-Koltunski E,Cabarrão V,Chatzitheodorou K,Nurminen M,Kanojia D,Moniz H</v>
       </c>
       <c r="D7" t="str">
-        <v>CoRR</v>
+        <v>Prompting Large Language Models with Human Error Markings for Self-Correcting Machine Translation</v>
       </c>
       <c r="E7" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>abs/2310.01798</v>
+        <v>2024</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -686,42 +705,45 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>636-646</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>European Association for Machine Translation (EAMT)</v>
       </c>
       <c r="K7" t="str">
-        <v>2023</v>
+        <v>Proceedings of the 25th Annual Conference of the European Association for Machine Translation (Volume 1), EAMT 2024, Sheffield, UK, June 24-27, 2024</v>
       </c>
       <c r="L7" t="str">
-        <v>https://doi.org/10.48550/arXiv.2310.01798;http://dx.doi.org/10.48550/ARXIV.2310.01798</v>
+        <v>2024</v>
       </c>
       <c r="M7" t="str">
-        <v>10.48550/ARXIV.2310.01798</v>
+        <v>https://aclanthology.org/2024.eamt-1.54</v>
       </c>
       <c r="N7" t="str">
-        <v>2310.01798</v>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B8" t="str">
-        <v>Krishna S</v>
+        <v>Wu Z,Zeng Q,Zhang Z,Tan Z,Shen C,Jiang M</v>
       </c>
       <c r="C8" t="str">
-        <v>On the Intersection of Self-Correction and Trust in Language Models</v>
+        <v>Al-Onaizan Y,Bansal M,Chen YN</v>
       </c>
       <c r="D8" t="str">
-        <v>CoRR</v>
+        <v>Large Language Models Can Self-Correct with Key Condition Verification</v>
       </c>
       <c r="E8" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>abs/2311.02801</v>
+        <v>2024</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -730,22 +752,25 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>12846-12867</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K8" t="str">
-        <v>2023</v>
+        <v>Proceedings of the 2024 Conference on Empirical Methods in Natural Language Processing, EMNLP 2024, Miami, FL, USA, November 12-16, 2024</v>
       </c>
       <c r="L8" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.02801;http://dx.doi.org/10.48550/ARXIV.2311.02801</v>
+        <v>2024</v>
       </c>
       <c r="M8" t="str">
-        <v>10.48550/ARXIV.2311.02801</v>
+        <v>https://aclanthology.org/2024.emnlp-main.714</v>
       </c>
       <c r="N8" t="str">
-        <v>2311.02801</v>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -753,63 +778,66 @@
         <v>Conference Paper</v>
       </c>
       <c r="B9" t="str">
-        <v>Ke L,Li X,Bisk Y,Holtzman A,Gan Z,Liu J,Gao J,Choi Y,Srinivasa SS</v>
+        <v>Poncelet J,Van Hamme H</v>
       </c>
       <c r="C9" t="str">
-        <v>Tactical Rewind: Self-Correction via Backtracking in Vision-And-Language Navigation</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>Unsupervised Accent Adaptation Through Masked Language Model Correction of Discrete Self-Supervised Speech Units</v>
       </c>
       <c r="E9" t="str">
-        <v>2019</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>2024</v>
       </c>
       <c r="G9" t="str">
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>6741-6749</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v>Computer Vision Foundation / IEEE</v>
+        <v>10236-10240</v>
       </c>
       <c r="J9" t="str">
-        <v>IEEE Conference on Computer Vision and Pattern Recognition, CVPR 2019, Long Beach, CA, USA, June 16-20, 2019</v>
+        <v>IEEE</v>
       </c>
       <c r="K9" t="str">
-        <v>2019</v>
+        <v>IEEE International Conference on Acoustics, Speech and Signal Processing, ICASSP 2024, Seoul, Republic of Korea, April 14-19, 2024</v>
       </c>
       <c r="L9" t="str">
-        <v>http://openaccess.thecvf.com/content_CVPR_2019/html/Ke_Tactical_Rewind_Self-Correction_via_Backtracking_in_Vision-And-Language_Navigation_CVPR_2019_paper.html;http://dx.doi.org/10.1109/CVPR.2019.00690</v>
+        <v>2024</v>
       </c>
       <c r="M9" t="str">
-        <v>10.1109/CVPR.2019.00690</v>
+        <v>https://doi.org/10.1109/ICASSP48485.2024.10446344;http://dx.doi.org/10.1109/ICASSP48485.2024.10446344</v>
       </c>
       <c r="N9" t="str">
+        <v>10.1109/ICASSP48485.2024.10446344</v>
+      </c>
+      <c r="O9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B10" t="str">
-        <v>Ke L,Li X,Bisk Y,Holtzman A,Gan Z,Liu J,Gao J,Choi Y,Srinivasa SS</v>
+        <v>Huang J,Chen X,Mishra S,Zheng HS,Yu AW,Song X,Zhou D</v>
       </c>
       <c r="C10" t="str">
-        <v>Tactical Rewind: Self-Correction via Backtracking in Vision-and-Language Navigation</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>CoRR</v>
+        <v>Large Language Models Cannot Self-Correct Reasoning Yet</v>
       </c>
       <c r="E10" t="str">
-        <v>2019</v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v>abs/1903.02547</v>
+        <v>2024</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -821,19 +849,22 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>OpenReview.net</v>
       </c>
       <c r="K10" t="str">
-        <v>2019</v>
+        <v>The Twelfth International Conference on Learning Representations, ICLR 2024, Vienna, Austria, May 7-11, 2024</v>
       </c>
       <c r="L10" t="str">
-        <v>http://arxiv.org/abs/1903.02547</v>
+        <v>2024</v>
       </c>
       <c r="M10" t="str">
-        <v/>
+        <v>https://openreview.net/forum?id=IkmD3fKBPQ</v>
       </c>
       <c r="N10" t="str">
-        <v>1903.02547</v>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -841,69 +872,72 @@
         <v>Conference Paper</v>
       </c>
       <c r="B11" t="str">
-        <v>Bonfante G,Godfroy H,Marion JY</v>
+        <v>Gou Z,Shao Z,Gong Y,Shen Y,Yang Y,Duan N,Chen W</v>
       </c>
       <c r="C11" t="str">
-        <v>A construction of a self-modifiying language with a formal correction proof</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>CRITIC: Large Language Models Can Self-Correct with Tool-Interactive Critiquing</v>
       </c>
       <c r="E11" t="str">
-        <v>2017</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>2024</v>
       </c>
       <c r="G11" t="str">
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>99-106</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>IEEE Computer Society</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>12th International Conference on Malicious and Unwanted Software, MALWARE 2017, Fajardo, PR, USA, October 11-14, 2017</v>
+        <v>OpenReview.net</v>
       </c>
       <c r="K11" t="str">
-        <v>2017</v>
+        <v>The Twelfth International Conference on Learning Representations, ICLR 2024, Vienna, Austria, May 7-11, 2024</v>
       </c>
       <c r="L11" t="str">
-        <v>https://doi.org/10.1109/MALWARE.2017.8323962;http://dx.doi.org/10.1109/MALWARE.2017.8323962</v>
+        <v>2024</v>
       </c>
       <c r="M11" t="str">
-        <v>10.1109/MALWARE.2017.8323962</v>
+        <v>https://openreview.net/forum?id=Sx038qxjek</v>
       </c>
       <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B12" t="str">
-        <v>Ramscar M,Yarlett D</v>
+        <v>Chen L,Tong P,Jin Z,Sun Y,Ye J,Xiong H</v>
       </c>
       <c r="C12" t="str">
-        <v>Linguistic Self-Correction in the Absence of Feedback: A New Approach to the Logical Problem of Language Acquisition</v>
+        <v>Globersons A,Mackey L,Belgrave D,Fan A,Paquet U,Tomczak JM,Zhang C</v>
       </c>
       <c r="D12" t="str">
-        <v>Cogn. Sci.</v>
+        <v>Plan-on-Graph: Self-Correcting Adaptive Planning of Large Language Model on Knowledge Graphs</v>
       </c>
       <c r="E12" t="str">
-        <v>2007</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>31</v>
+        <v>2024</v>
       </c>
       <c r="G12" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>927-960</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -912,15 +946,18 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>2007</v>
+        <v>Advances in Neural Information Processing Systems 38: Annual Conference on Neural Information Processing Systems 2024, NeurIPS 2024, Vancouver, BC, Canada, December 10 - 15, 2024</v>
       </c>
       <c r="L12" t="str">
-        <v>https://doi.org/10.1080/03640210701703576;http://dx.doi.org/10.1080/03640210701703576</v>
+        <v>2024</v>
       </c>
       <c r="M12" t="str">
-        <v>10.1080/03640210701703576</v>
+        <v>http://papers.nips.cc/paper_files/paper/2024/hash/4254e856d01a5e7b7ea050477c3ef9b9-Abstract-Conference.html</v>
       </c>
       <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
         <v/>
       </c>
     </row>
@@ -929,48 +966,1461 @@
         <v>Journal Article</v>
       </c>
       <c r="B13" t="str">
+        <v>Han H,Liang J,Shi J,He Q,Xiao Y</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>Small Language Model Can Self-correct</v>
+      </c>
+      <c r="E13" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G13" t="str">
+        <v>abs/2401.07301</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M13" t="str">
+        <v>https://doi.org/10.48550/arXiv.2401.07301;http://dx.doi.org/10.48550/ARXIV.2401.07301</v>
+      </c>
+      <c r="N13" t="str">
+        <v>10.48550/ARXIV.2401.07301</v>
+      </c>
+      <c r="O13" t="str">
+        <v>2401.07301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Wang Z,Xie E,Li A,Wang Z,Liu X,Li Z</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>Divide and Conquer: Language Models can Plan and Self-Correct for Compositional Text-to-Image Generation</v>
+      </c>
+      <c r="E14" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G14" t="str">
+        <v>abs/2401.15688</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M14" t="str">
+        <v>https://doi.org/10.48550/arXiv.2401.15688;http://dx.doi.org/10.48550/ARXIV.2401.15688</v>
+      </c>
+      <c r="N14" t="str">
+        <v>10.48550/ARXIV.2401.15688</v>
+      </c>
+      <c r="O14" t="str">
+        <v>2401.15688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Li L,Chen G,Su Y,Chen Z,Zhang Y,Xing EP,Zhang K</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>Confidence Matters: Revisiting Intrinsic Self-Correction Capabilities of Large Language Models</v>
+      </c>
+      <c r="E15" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G15" t="str">
+        <v>abs/2402.12563</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M15" t="str">
+        <v>https://doi.org/10.48550/arXiv.2402.12563;http://dx.doi.org/10.48550/ARXIV.2402.12563</v>
+      </c>
+      <c r="N15" t="str">
+        <v>10.48550/ARXIV.2402.12563</v>
+      </c>
+      <c r="O15" t="str">
+        <v>2402.12563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Zhang C,Xiao Z,Han C,Lian Y,Fang Y</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>Learning to Check: Unleashing Potentials for Self-Correction in Large Language Models</v>
+      </c>
+      <c r="E16" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G16" t="str">
+        <v>abs/2402.13035</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M16" t="str">
+        <v>https://doi.org/10.48550/arXiv.2402.13035;http://dx.doi.org/10.48550/ARXIV.2402.13035</v>
+      </c>
+      <c r="N16" t="str">
+        <v>10.48550/ARXIV.2402.13035</v>
+      </c>
+      <c r="O16" t="str">
+        <v>2402.13035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Zhang Y,Khalifa M,Logeswaran L,Kim J,Lee M,Lee H,Wang L</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Small Language Models Need Strong Verifiers to Self-Correct Reasoning</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G17" t="str">
+        <v>abs/2404.17140</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M17" t="str">
+        <v>https://doi.org/10.48550/arXiv.2404.17140;http://dx.doi.org/10.48550/ARXIV.2404.17140</v>
+      </c>
+      <c r="N17" t="str">
+        <v>10.48550/ARXIV.2404.17140</v>
+      </c>
+      <c r="O17" t="str">
+        <v>2404.17140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Wu Z,Zeng Q,Zhang Z,Tan Z,Shen C,Jiang M</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>Large Language Models Can Self-Correct with Minimal Effort</v>
+      </c>
+      <c r="E18" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G18" t="str">
+        <v>abs/2405.14092</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M18" t="str">
+        <v>https://doi.org/10.48550/arXiv.2405.14092;http://dx.doi.org/10.48550/ARXIV.2405.14092</v>
+      </c>
+      <c r="N18" t="str">
+        <v>10.48550/ARXIV.2405.14092</v>
+      </c>
+      <c r="O18" t="str">
+        <v>2405.14092</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Liu J,Li C,Wang G,Lee L,Zhou K,Chen S,Xiong C,Ge J,Zhang R,Zhang S</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>Self-Corrected Multimodal Large Language Model for End-to-End Robot Manipulation</v>
+      </c>
+      <c r="E19" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="str">
+        <v>abs/2405.17418</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M19" t="str">
+        <v>https://doi.org/10.48550/arXiv.2405.17418;http://dx.doi.org/10.48550/ARXIV.2405.17418</v>
+      </c>
+      <c r="N19" t="str">
+        <v>10.48550/ARXIV.2405.17418</v>
+      </c>
+      <c r="O19" t="str">
+        <v>2405.17418</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Berger N,Riezler S,Exel M,Huck M</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>Prompting Large Language Models with Human Error Markings for Self-Correcting Machine Translation</v>
+      </c>
+      <c r="E20" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="str">
+        <v>abs/2406.02267</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M20" t="str">
+        <v>https://doi.org/10.48550/arXiv.2406.02267;http://dx.doi.org/10.48550/ARXIV.2406.02267</v>
+      </c>
+      <c r="N20" t="str">
+        <v>10.48550/ARXIV.2406.02267</v>
+      </c>
+      <c r="O20" t="str">
+        <v>2406.02267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Liu D,Nassereldine A,Yang Z,Xu C,Hu Y,Li J,Kumar U,Lee C,Xiong J</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>Large Language Models have Intrinsic Self-Correction Ability</v>
+      </c>
+      <c r="E21" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="str">
+        <v>abs/2406.15673</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M21" t="str">
+        <v>https://doi.org/10.48550/arXiv.2406.15673;http://dx.doi.org/10.48550/ARXIV.2406.15673</v>
+      </c>
+      <c r="N21" t="str">
+        <v>10.48550/ARXIV.2406.15673</v>
+      </c>
+      <c r="O21" t="str">
+        <v>2406.15673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Puerto H,Chubakov T,Zhu X,Madabushi HT,Gurevych I</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>Fine-Tuning with Divergent Chains of Thought Boosts Reasoning Through Self-Correction in Language Models</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G22" t="str">
+        <v>abs/2407.03181</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M22" t="str">
+        <v>https://doi.org/10.48550/arXiv.2407.03181;http://dx.doi.org/10.48550/ARXIV.2407.03181</v>
+      </c>
+      <c r="N22" t="str">
+        <v>10.48550/ARXIV.2407.03181</v>
+      </c>
+      <c r="O22" t="str">
+        <v>2407.03181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Quoc TT,Minh DH,Thanh TQ,Nguyen-Duc A</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>An Empirical Study on Self-correcting Large Language Models for Data Science Code Generation</v>
+      </c>
+      <c r="E23" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="str">
+        <v>abs/2408.15658</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://doi.org/10.48550/arXiv.2408.15658;http://dx.doi.org/10.48550/ARXIV.2408.15658</v>
+      </c>
+      <c r="N23" t="str">
+        <v>10.48550/ARXIV.2408.15658</v>
+      </c>
+      <c r="O23" t="str">
+        <v>2408.15658</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Yan Y,Jiang J,Liu Y,Cao Y,Xu X,Zhang M,Cai X,Shao J</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>S\(^3\)c-Math: Spontaneous Step-level Self-correction Makes Large Language Models Better Mathematical Reasoners</v>
+      </c>
+      <c r="E24" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="str">
+        <v>abs/2409.01524</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://doi.org/10.48550/arXiv.2409.01524;http://dx.doi.org/10.48550/ARXIV.2409.01524</v>
+      </c>
+      <c r="N24" t="str">
+        <v>10.48550/ARXIV.2409.01524</v>
+      </c>
+      <c r="O24" t="str">
+        <v>2409.01524</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kumar A,Zhuang V,Agarwal R,Su Y,Co-Reyes JD,Singh A,Baumli K,Iqbal S,Bishop C,Roelofs R,Zhang LM,McKinney K,Shrivastava D,Paduraru C,Tucker G,Precup D,Behbahani FM,Faust A</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>Training Language Models to Self-Correct via Reinforcement Learning</v>
+      </c>
+      <c r="E25" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G25" t="str">
+        <v>abs/2409.12917</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://doi.org/10.48550/arXiv.2409.12917;http://dx.doi.org/10.48550/ARXIV.2409.12917</v>
+      </c>
+      <c r="N25" t="str">
+        <v>10.48550/ARXIV.2409.12917</v>
+      </c>
+      <c r="O25" t="str">
+        <v>2409.12917</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B26" t="str">
+        <v>He J,Lin H,Wang Q,Fung Y,Ji H</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>Self-Correction is More than Refinement: A Learning Framework for Visual and Language Reasoning Tasks</v>
+      </c>
+      <c r="E26" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="str">
+        <v>abs/2410.04055</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.04055;http://dx.doi.org/10.48550/ARXIV.2410.04055</v>
+      </c>
+      <c r="N26" t="str">
+        <v>10.48550/ARXIV.2410.04055</v>
+      </c>
+      <c r="O26" t="str">
+        <v>2410.04055</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Gao K,Cai H,Shuai Q,Gong D,Li Z</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>Embedding Self-Correction as an Inherent Ability in Large Language Models for Enhanced Mathematical Reasoning</v>
+      </c>
+      <c r="E27" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="str">
+        <v>abs/2410.10735</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M27" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.10735;http://dx.doi.org/10.48550/ARXIV.2410.10735</v>
+      </c>
+      <c r="N27" t="str">
+        <v>10.48550/ARXIV.2410.10735</v>
+      </c>
+      <c r="O27" t="str">
+        <v>2410.10735</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Qi Z,Liu G,Johnson KM,Chen L</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>Is Moral Self-correction An Innate Capability of Large Language Models? A Mechanistic Analysis to Self-correction</v>
+      </c>
+      <c r="E28" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G28" t="str">
+        <v>abs/2410.20513</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.20513;http://dx.doi.org/10.48550/ARXIV.2410.20513</v>
+      </c>
+      <c r="N28" t="str">
+        <v>10.48550/ARXIV.2410.20513</v>
+      </c>
+      <c r="O28" t="str">
+        <v>2410.20513</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Liu G,Xue Z,Wang R,Johnson KM</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>Smaller Large Language Models Can Do Moral Self-Correction</v>
+      </c>
+      <c r="E29" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="str">
+        <v>abs/2410.23496</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.23496;http://dx.doi.org/10.48550/ARXIV.2410.23496</v>
+      </c>
+      <c r="N29" t="str">
+        <v>10.48550/ARXIV.2410.23496</v>
+      </c>
+      <c r="O29" t="str">
+        <v>2410.23496</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Chen L,Tong P,Jin Z,Sun Y,Ye J,Xiong H</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>Plan-on-Graph: Self-Correcting Adaptive Planning of Large Language Model on Knowledge Graphs</v>
+      </c>
+      <c r="E30" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G30" t="str">
+        <v>abs/2410.23875</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.23875;http://dx.doi.org/10.48550/ARXIV.2410.23875</v>
+      </c>
+      <c r="N30" t="str">
+        <v>10.48550/ARXIV.2410.23875</v>
+      </c>
+      <c r="O30" t="str">
+        <v>2410.23875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Upadhyaya N,Sridharamurthy R</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>Internalized Self-Correction for Large Language Models</v>
+      </c>
+      <c r="E31" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G31" t="str">
+        <v>abs/2412.16653</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M31" t="str">
+        <v>https://doi.org/10.48550/arXiv.2412.16653;http://dx.doi.org/10.48550/ARXIV.2412.16653</v>
+      </c>
+      <c r="N31" t="str">
+        <v>10.48550/ARXIV.2412.16653</v>
+      </c>
+      <c r="O31" t="str">
+        <v>2412.16653</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Ganguli D,Askell A,Schiefer N,Liao TI,Lukosiute K,Chen A,Goldie A,Mirhoseini A,Olsson C,Hernandez D,Drain D,Li D,Tran-Johnson E,Perez E,Kernion J,Kerr J,Mueller J,Landau J,Ndousse K,Nguyen K,Lovitt L,Sellitto M,Elhage N,Mercado N,DasSarma N,Rausch O,Lasenby R,Larson R,Ringer S,Kundu S,Kadavath S,Johnston S,Kravec S,Showk SE,Lanham T,Telleen-Lawton T,Henighan T,Hume T,Bai Y,Hatfield-Dodds Z,Mann B,Amodei D,Joseph N,McCandlish S,Brown T,Olah C,Clark J,Bowman SR,Kaplan J</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>The Capacity for Moral Self-Correction in Large Language Models</v>
+      </c>
+      <c r="E32" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G32" t="str">
+        <v>abs/2302.07459</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://doi.org/10.48550/arXiv.2302.07459;http://dx.doi.org/10.48550/ARXIV.2302.07459</v>
+      </c>
+      <c r="N32" t="str">
+        <v>10.48550/ARXIV.2302.07459</v>
+      </c>
+      <c r="O32" t="str">
+        <v>2302.07459</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Gou Z,Shao Z,Gong Y,Shen Y,Yang Y,Duan N,Chen W</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>CRITIC: Large Language Models Can Self-Correct with Tool-Interactive Critiquing</v>
+      </c>
+      <c r="E33" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G33" t="str">
+        <v>abs/2305.11738</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M33" t="str">
+        <v>https://doi.org/10.48550/arXiv.2305.11738;http://dx.doi.org/10.48550/ARXIV.2305.11738</v>
+      </c>
+      <c r="N33" t="str">
+        <v>10.48550/ARXIV.2305.11738</v>
+      </c>
+      <c r="O33" t="str">
+        <v>2305.11738</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Zhao T,Wei M,Preston JS,Poon H</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>Automatic Calibration and Error Correction for Large Language Models via Pareto Optimal Self-Supervision</v>
+      </c>
+      <c r="E34" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G34" t="str">
+        <v>abs/2306.16564</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M34" t="str">
+        <v>https://doi.org/10.48550/arXiv.2306.16564;http://dx.doi.org/10.48550/ARXIV.2306.16564</v>
+      </c>
+      <c r="N34" t="str">
+        <v>10.48550/ARXIV.2306.16564</v>
+      </c>
+      <c r="O34" t="str">
+        <v>2306.16564</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Pan L,Saxon M,Xu W,Nathani D,Wang X,Wang WY</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>Automatically Correcting Large Language Models: Surveying the landscape of diverse self-correction strategies</v>
+      </c>
+      <c r="E35" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G35" t="str">
+        <v>abs/2308.03188</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://doi.org/10.48550/arXiv.2308.03188;http://dx.doi.org/10.48550/ARXIV.2308.03188</v>
+      </c>
+      <c r="N35" t="str">
+        <v>10.48550/ARXIV.2308.03188</v>
+      </c>
+      <c r="O35" t="str">
+        <v>2308.03188</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Poncelet J,Van Hamme H</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>Unsupervised Accent Adaptation Through Masked Language Model Correction Of Discrete Self-Supervised Speech Units</v>
+      </c>
+      <c r="E36" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G36" t="str">
+        <v>abs/2309.13994</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M36" t="str">
+        <v>https://doi.org/10.48550/arXiv.2309.13994;http://dx.doi.org/10.48550/ARXIV.2309.13994</v>
+      </c>
+      <c r="N36" t="str">
+        <v>10.48550/ARXIV.2309.13994</v>
+      </c>
+      <c r="O36" t="str">
+        <v>2309.13994</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Huang J,Chen X,Mishra S,Zheng HS,Yu AW,Song X,Zhou D</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>Large Language Models Cannot Self-Correct Reasoning Yet</v>
+      </c>
+      <c r="E37" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G37" t="str">
+        <v>abs/2310.01798</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M37" t="str">
+        <v>https://doi.org/10.48550/arXiv.2310.01798;http://dx.doi.org/10.48550/ARXIV.2310.01798</v>
+      </c>
+      <c r="N37" t="str">
+        <v>10.48550/ARXIV.2310.01798</v>
+      </c>
+      <c r="O37" t="str">
+        <v>2310.01798</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Krishna S</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>On the Intersection of Self-Correction and Trust in Language Models</v>
+      </c>
+      <c r="E38" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G38" t="str">
+        <v>abs/2311.02801</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M38" t="str">
+        <v>https://doi.org/10.48550/arXiv.2311.02801;http://dx.doi.org/10.48550/ARXIV.2311.02801</v>
+      </c>
+      <c r="N38" t="str">
+        <v>10.48550/ARXIV.2311.02801</v>
+      </c>
+      <c r="O38" t="str">
+        <v>2311.02801</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Ke L,Li X,Bisk Y,Holtzman A,Gan Z,Liu J,Gao J,Choi Y,Srinivasa SS</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Tactical Rewind: Self-Correction via Backtracking in Vision-And-Language Navigation</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v>6741-6749</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Computer Vision Foundation / IEEE</v>
+      </c>
+      <c r="K39" t="str">
+        <v>IEEE Conference on Computer Vision and Pattern Recognition, CVPR 2019, Long Beach, CA, USA, June 16-20, 2019</v>
+      </c>
+      <c r="L39" t="str">
+        <v>2019</v>
+      </c>
+      <c r="M39" t="str">
+        <v>http://openaccess.thecvf.com/content_CVPR_2019/html/Ke_Tactical_Rewind_Self-Correction_via_Backtracking_in_Vision-And-Language_Navigation_CVPR_2019_paper.html;http://dx.doi.org/10.1109/CVPR.2019.00690</v>
+      </c>
+      <c r="N39" t="str">
+        <v>10.1109/CVPR.2019.00690</v>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Ke L,Li X,Bisk Y,Holtzman A,Gan Z,Liu J,Gao J,Choi Y,Srinivasa SS</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>Tactical Rewind: Self-Correction via Backtracking in Vision-and-Language Navigation</v>
+      </c>
+      <c r="E40" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G40" t="str">
+        <v>abs/1903.02547</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v>2019</v>
+      </c>
+      <c r="M40" t="str">
+        <v>http://arxiv.org/abs/1903.02547</v>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v>1903.02547</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Bonfante G,Godfroy H,Marion JY</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>A construction of a self-modifiying language with a formal correction proof</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>2017</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v>99-106</v>
+      </c>
+      <c r="J41" t="str">
+        <v>IEEE Computer Society</v>
+      </c>
+      <c r="K41" t="str">
+        <v>12th International Conference on Malicious and Unwanted Software, MALWARE 2017, Fajardo, PR, USA, October 11-14, 2017</v>
+      </c>
+      <c r="L41" t="str">
+        <v>2017</v>
+      </c>
+      <c r="M41" t="str">
+        <v>https://doi.org/10.1109/MALWARE.2017.8323962;http://dx.doi.org/10.1109/MALWARE.2017.8323962</v>
+      </c>
+      <c r="N41" t="str">
+        <v>10.1109/MALWARE.2017.8323962</v>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ramscar M,Yarlett D</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>Linguistic Self-Correction in the Absence of Feedback: A New Approach to the Logical Problem of Language Acquisition</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Cogn. Sci.</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2007</v>
+      </c>
+      <c r="G42" t="str">
+        <v>31</v>
+      </c>
+      <c r="H42" t="str">
+        <v>6</v>
+      </c>
+      <c r="I42" t="str">
+        <v>927-960</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v>2007</v>
+      </c>
+      <c r="M42" t="str">
+        <v>https://doi.org/10.1080/03640210701703576;http://dx.doi.org/10.1080/03640210701703576</v>
+      </c>
+      <c r="N42" t="str">
+        <v>10.1080/03640210701703576</v>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B43" t="str">
         <v>Moon N</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
         <v>The self-correction method for programming language tutoring system</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E43" t="str">
         <v>ACIS Int. J. Comput. Inf. Sci.</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F43" t="str">
         <v>2000</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G43" t="str">
         <v>1</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H43" t="str">
         <v>4</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I43" t="str">
         <v>206-215</v>
       </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
         <v>2000</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M43" t="str">
         <v>https://dl.acm.org/doi/10.5555/543121.543127;http://dx.doi.org/10.5555/543121.543127</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N43" t="str">
         <v>10.5555/543121.543127</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O43" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O43"/>
   </ignoredErrors>
 </worksheet>
 </file>